--- a/__repository/template_import/tbl_emp.xlsx
+++ b/__repository/template_import/tbl_emp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="emp" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>costcenter</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>cost_nbr</t>
+  </si>
+  <si>
+    <t>periode_bulan</t>
+  </si>
+  <si>
+    <t>periode_tahun</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,11 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -514,9 +527,10 @@
     <col min="17" max="17" width="8.85546875" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="21" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,6 +590,12 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -601,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/__repository/template_import/tbl_emp.xlsx
+++ b/__repository/template_import/tbl_emp.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>costcenter</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>fte_count</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>rd_tot_qty</t>
   </si>
   <si>
     <t>budgettype</t>
@@ -509,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -524,13 +518,11 @@
     <col min="14" max="14" width="17.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
-    <col min="21" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="19" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,17 +577,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
